--- a/36 volumes connect to hs/Nodalization-AP600-MELCOR - more volume.xlsx
+++ b/36 volumes connect to hs/Nodalization-AP600-MELCOR - more volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="719" firstSheet="3" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="891" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>total</t>
   </si>
@@ -66,6 +66,98 @@
     <t>heat transfer are</t>
   </si>
   <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial pressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass flow rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEVATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CV_VAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,119 +174,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FL From 206 to 208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initial pressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mass flow rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FL From 208 to 204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sub-volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOLUME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEVATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LENGTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dh</t>
+    <t>CV_VAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table row index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>altitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV_VAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table row index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>altitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,8 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,12 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -555,7 +569,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,7 +644,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f>B3/2</f>
@@ -639,11 +653,11 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <f>0.91/6/2+0.195/2</f>
-        <v>0.17333333333333334</v>
+        <f>0.91/6/2+(2.4384-0.91)/2/2</f>
+        <v>0.4579333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -665,14 +679,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <f>0.91*0.91*0.3048</f>
         <v>0.25240488000000005</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E1">
         <f>1.5284</f>
@@ -795,7 +809,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f>B3/2</f>
@@ -804,7 +818,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <f>0.91/6</f>
@@ -830,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <f>0.91/6</f>
@@ -839,7 +853,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <f>0.91*0.3048/6</f>
@@ -898,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
@@ -907,7 +921,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0.14935199999999998</v>
@@ -915,7 +929,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1.2847999999999997</v>
@@ -923,7 +937,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -948,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <f>(0.91/2+0.195/2)</f>
@@ -957,7 +971,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0.14935199999999998</v>
@@ -965,7 +979,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1.2847999999999997</v>
@@ -973,7 +987,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -988,15 +1002,19 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>4.6227999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1032,7 @@
         <v>0.30333333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1023,22 +1041,82 @@
         <v>0.60959999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f>B3/2</f>
         <v>0.30479999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <f>(1.4-0.91)/2+0.91/6/2</f>
-        <v>0.3208333333333333</v>
+        <f>0.91/6/2*2</f>
+        <v>0.15166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>2.1350699999999998</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.2867299999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <f>AVERAGE(A13,B13)</f>
+        <v>2.2108999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>1.9834000000000001</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.1350699999999998</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:C17" si="0">AVERAGE(A14,B14)</f>
+        <v>2.0592350000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>1.8317300000000001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.9834000000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.907565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1.68007</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.8317300000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>1.5284</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.68007</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6042350000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1059,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
@@ -1068,7 +1146,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0.277368</v>
@@ -1076,7 +1154,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2.1248</v>
@@ -1084,7 +1162,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -1102,7 +1180,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1115,11 +1193,11 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <f>(2.4384-0.91)-0.195</f>
-        <v>1.3333999999999999</v>
+        <f>(2.4384-0.91)/2</f>
+        <v>0.76419999999999999</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1130,13 +1208,13 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1161,31 +1239,20 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>B7</f>
-        <v>0.44446666666666662</v>
+        <f>B1</f>
+        <v>0.76419999999999999</v>
       </c>
       <c r="J4">
-        <f>B7*B2*B3</f>
-        <v>0.18966281599999998</v>
+        <f>B1*B2*B3</f>
+        <v>0.32609942399999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <f>B7*2</f>
-        <v>0.88893333333333324</v>
-      </c>
-      <c r="J5">
-        <f>J4*2</f>
-        <v>0.37932563199999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1196,17 +1263,6 @@
         <f>B2*B3</f>
         <v>0.42671999999999999</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f>B7*3</f>
-        <v>1.3333999999999999</v>
-      </c>
-      <c r="J6">
-        <f>J4*3</f>
-        <v>0.56898844799999992</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1214,7 +1270,7 @@
       </c>
       <c r="B7">
         <f>B1/3</f>
-        <v>0.44446666666666662</v>
+        <v>0.25473333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1252,7 +1308,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,11 +1318,11 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <f>0.39/2</f>
-        <v>0.19500000000000001</v>
+        <f>(2.4384-0.91)/2</f>
+        <v>0.76419999999999999</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1277,13 +1333,13 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1291,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>1.4-0.91</f>
+        <f>(1.4-0.91)</f>
         <v>0.48999999999999988</v>
       </c>
       <c r="H3">
@@ -1314,13 +1370,13 @@
         <v>1.5284</v>
       </c>
       <c r="J4">
-        <f>B7*B2*B3</f>
-        <v>2.9123639999999996E-2</v>
+        <f>B1*B2*B3</f>
+        <v>0.11413479839999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1341,7 +1397,7 @@
       </c>
       <c r="B7">
         <f>B1/B5</f>
-        <v>0.19500000000000001</v>
+        <v>0.76419999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1349,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>B2+B3*2</f>
+        <f>B2+B3+B3</f>
         <v>1.2847999999999997</v>
       </c>
     </row>
@@ -1373,7 +1429,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1443,7 @@
         <v>0.91</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1398,13 +1454,13 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1441,7 +1497,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1470,8 +1526,8 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>B2+B3+B3+B2</f>
-        <v>1.5895999999999997</v>
+        <f>B2+B3+B3</f>
+        <v>1.2847999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1480,13 +1536,13 @@
       </c>
       <c r="B9">
         <f>4*B6/B8</f>
-        <v>0.37582284851534981</v>
+        <v>0.46498132004981324</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <f>B9/2</f>
-        <v>0.1879114242576749</v>
+        <v>0.23249066002490662</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,7 +1569,7 @@
         <v>0.91</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1524,13 +1580,13 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1552,9 +1608,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -1583,13 +1636,6 @@
         <f>B2*B3</f>
         <v>0.277368</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <f>B1*B2</f>
-        <v>0.277368</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1599,28 +1645,14 @@
         <f>B1/B5</f>
         <v>0.91</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <f>2*(B1+B2)</f>
-        <v>2.4296000000000002</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <f>B2+B3+B3+B2</f>
-        <v>2.4296000000000002</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <f>4*E6/E7</f>
-        <v>0.45664800790253535</v>
+        <f>B2+B3+B3</f>
+        <v>2.1248</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1629,55 +1661,13 @@
       </c>
       <c r="B9">
         <f>4*B6/B8</f>
-        <v>0.45664800790253535</v>
-      </c>
-      <c r="E9">
-        <f>E8/2</f>
-        <v>0.22832400395126767</v>
+        <v>0.52215361445783137</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <f>B9/2</f>
-        <v>0.22832400395126767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <f>B1*B2</f>
-        <v>0.277368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <f>2*(B2+B3)</f>
-        <v>2.4296000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <f>4*E15/E16</f>
-        <v>0.45664800790253535</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E18">
-        <f>E17/2</f>
-        <v>0.22832400395126767</v>
+        <v>0.26107680722891569</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <f>2.54/100</f>
@@ -1712,7 +1702,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <f>B1^2*3.14/4</f>
@@ -1721,7 +1711,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>398.28</v>
@@ -1729,7 +1719,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>172369</v>
@@ -1737,7 +1727,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2.7E-2</v>
@@ -1745,7 +1735,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0.95609999999999995</v>
@@ -1753,7 +1743,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <f>B8/B11/B2</f>
@@ -1797,24 +1787,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1">
-        <f>0.39/2</f>
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <f>(2.4384-0.91)/2</f>
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1">
+        <f>B1*B2*B3</f>
+        <v>0.21196462560000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>0.30480000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1831,15 +1828,15 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1848,16 +1845,16 @@
         <v>0.277368</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <f>B1/B5</f>
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>2.1248</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1883,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,7 +1917,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f>B3/2</f>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <f>(1.4-0.91)/2+0.91/6/2</f>
